--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561639.9185069824</v>
+        <v>558938.2706044482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673453</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11766008.66729848</v>
+        <v>11766008.66729847</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.57494829067544</v>
+      </c>
+      <c r="H2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="G2" t="n">
-        <v>13.09783323005805</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>152.0747039460364</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>106.267978272003</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>130.4949840230018</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>58.85827262552802</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>203.2662833005395</v>
       </c>
       <c r="G5" t="n">
         <v>11.87073484362677</v>
@@ -944,25 +944,25 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>47.32705968816477</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>109.7553383425719</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.31947454675827</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.9632582378651</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.83088445038199</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9186869163649</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731849</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>18.87931936511446</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.4667717416198</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436609</v>
+        <v>94.29488917436601</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282967</v>
+        <v>30.34503645282918</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1789700647268</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>192.6772763323793</v>
       </c>
       <c r="U9" t="n">
         <v>225.819171215429</v>
@@ -1272,10 +1272,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>133.3882142147718</v>
+        <v>101.7017203050687</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>200.579657756369</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>192.7772195028724</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374201</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>161.7030454731938</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812554</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530801</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.094087147403</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905251</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>140.9559771685091</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>152.085477663014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>132.4116178914867</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936169</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101241</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.23766645968713</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462249</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>114.293515799052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2811815126422118</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337059</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>105.8965430419528</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>284.3724851400877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471654</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>47.84205650381938</v>
+        <v>103.1686991936195</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>60.19827945150376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3791,13 +3791,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>17.95257707283358</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.93450140722118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.6519665656066</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656066</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656066</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656066</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>393.3574536167098</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487949</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487949</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="V2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="W2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="X2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487949</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323101</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323101</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323101</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158253</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4492,43 +4492,43 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
         <v>15.0020469733056</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.9394926791433</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="C5" t="n">
-        <v>558.9769757387317</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="D5" t="n">
-        <v>200.7112771319811</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="E5" t="n">
-        <v>141.2584765001347</v>
+        <v>339.6324538322843</v>
       </c>
       <c r="F5" t="n">
         <v>134.3129757509312</v>
@@ -4562,16 +4562,16 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4583,34 +4583,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1704.678664719077</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1704.678664719077</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.678664719077</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.678664719077</v>
+        <v>725.4207064305285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.539332743265</v>
+        <v>725.4207064305285</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.0963042497124</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C6" t="n">
-        <v>386.6432749685854</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D6" t="n">
-        <v>237.7088653073341</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E6" t="n">
         <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
         <v>89.55356510562316</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.160796968469</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>1144.923440240267</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>937.0719400347343</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>729.3116412697805</v>
+        <v>364.3567837923351</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.4967678970689</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>130.560584969162</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
         <v>92.71685897981521</v>
@@ -4750,25 +4750,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>299.4967678970689</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1132.531568632281</v>
+        <v>739.1879829255381</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.531568632281</v>
+        <v>370.2254659851264</v>
       </c>
       <c r="D8" t="n">
-        <v>774.2658700255303</v>
+        <v>370.2254659851264</v>
       </c>
       <c r="E8" t="n">
-        <v>774.2658700255303</v>
+        <v>370.2254659851264</v>
       </c>
       <c r="F8" t="n">
-        <v>767.3203692763268</v>
+        <v>363.2799652359229</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3295769022035</v>
+        <v>351.3295769022038</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420293</v>
+        <v>156.8280559420311</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002233</v>
+        <v>376.1555054002271</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707923</v>
+        <v>685.1523625707985</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937548</v>
+        <v>1060.640340937556</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733705</v>
+        <v>1446.817915733717</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659506</v>
+        <v>1798.13918765952</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284331</v>
+        <v>2063.482764284346</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228512</v>
+        <v>2214.57199322853</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970527</v>
+        <v>2217.050212970546</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970527</v>
+        <v>2085.83282117945</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290553</v>
+        <v>2085.83282117945</v>
       </c>
       <c r="U8" t="n">
-        <v>1753.448478186859</v>
+        <v>1832.228877075756</v>
       </c>
       <c r="V8" t="n">
-        <v>1753.448478186859</v>
+        <v>1501.165989732186</v>
       </c>
       <c r="W8" t="n">
-        <v>1400.679822916745</v>
+        <v>1148.397334462072</v>
       </c>
       <c r="X8" t="n">
-        <v>1400.679822916745</v>
+        <v>1129.32731490135</v>
       </c>
       <c r="Y8" t="n">
-        <v>1132.531568632281</v>
+        <v>739.1879829255381</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>768.7478189827493</v>
+        <v>286.1229250349159</v>
       </c>
       <c r="C9" t="n">
-        <v>594.2947897016223</v>
+        <v>286.1229250349159</v>
       </c>
       <c r="D9" t="n">
-        <v>445.3603800403711</v>
+        <v>286.1229250349159</v>
       </c>
       <c r="E9" t="n">
-        <v>286.1229250349156</v>
+        <v>286.1229250349159</v>
       </c>
       <c r="F9" t="n">
-        <v>139.5883670618005</v>
+        <v>139.5883670618008</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618005</v>
+        <v>139.5883670618008</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113485</v>
+        <v>92.51967467113595</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154157</v>
+        <v>253.019520915418</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572533</v>
+        <v>515.1539122572574</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449723</v>
+        <v>840.4092510449784</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738683</v>
+        <v>1188.681775738691</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074211</v>
+        <v>1485.063300074221</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566941</v>
+        <v>1703.602536566952</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257638</v>
+        <v>1799.771032257651</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285083</v>
+        <v>1769.119480285096</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285083</v>
+        <v>1630.554864058099</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838235</v>
+        <v>1435.931352611251</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893357</v>
+        <v>1207.831179666374</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661614</v>
+        <v>972.6790714346309</v>
       </c>
       <c r="W9" t="n">
-        <v>976.5081177477032</v>
+        <v>869.9500610254706</v>
       </c>
       <c r="X9" t="n">
-        <v>976.5081177477032</v>
+        <v>662.0985608199378</v>
       </c>
       <c r="Y9" t="n">
-        <v>768.7478189827493</v>
+        <v>454.3382620549839</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.3475911696567</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="C10" t="n">
-        <v>341.3475911696567</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2309517573209</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2309517573209</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941055</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016718</v>
+        <v>95.74470838016833</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810356</v>
+        <v>191.4295496810377</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422652</v>
+        <v>295.5740818422684</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091237</v>
+        <v>405.0998157091279</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712715</v>
+        <v>485.9514692712767</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139722</v>
+        <v>536.0720553139781</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139722</v>
+        <v>536.0720553139781</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139722</v>
+        <v>536.0720553139781</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139722</v>
+        <v>536.0720553139781</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139722</v>
+        <v>333.4663404085549</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139722</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="V10" t="n">
-        <v>536.0720553139722</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="W10" t="n">
-        <v>536.0720553139722</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="X10" t="n">
-        <v>341.3475911696567</v>
+        <v>44.34100425941091</v>
       </c>
       <c r="Y10" t="n">
-        <v>341.3475911696567</v>
+        <v>44.34100425941091</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.15580340979</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469378</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1127.224630526823</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643831</v>
+        <v>741.4363779285791</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747755</v>
+        <v>741.436377928579</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592061</v>
+        <v>326.8206133697244</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592061</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656942</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087827</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484038</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535291</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.12796747999</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464055</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579603</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.88329579603</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3713.546886227148</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3460.052944348676</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3128.990057005105</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.221401734992</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2402.755643473912</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2402.755643473912</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5103,37 +5103,37 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592061</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335444</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914953</v>
+        <v>488.5008422034059</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948023</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649232</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981754</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
         <v>2356.438638438442</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518.9401063276998</v>
+        <v>365.7608055583761</v>
       </c>
       <c r="C13" t="n">
-        <v>518.9401063276998</v>
+        <v>196.8246226304692</v>
       </c>
       <c r="D13" t="n">
-        <v>368.8234669153642</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153642</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648138</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344799</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818662</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.74346692558</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1914.363692007894</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1693.472359442335</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1693.472359442335</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1438.787871236448</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.370701199487</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>921.3811503014697</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.5885711579396</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.03302257936</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.10353054737</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1673476194632</v>
+        <v>344.9174178121619</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121619</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138387</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703086</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>854.7852236114974</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>704.6685841991616</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408917</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429813</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6321,7 +6321,7 @@
         <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.974531143471</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155642</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0086152208355</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>985.5125840134625</v>
+        <v>961.4835393015903</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400709</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400709</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576778</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F37" t="n">
-        <v>365.9405071576778</v>
+        <v>198.0274703142542</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356193</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356193</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356193</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311987</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032918</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>482.6390612909561</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578603</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614385</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7673,7 +7673,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>67.33400740195465</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184577</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615225</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>40.23577488125543</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080934</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>45.27871182352781</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624167</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>73.62417772602319</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.20385512672561</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295225</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>74.19629618688204</v>
+        <v>43.2652634529493</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922708</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>172.229482537539</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.139866510289</v>
+        <v>45.44677382459324</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823138</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.62759525031603</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>2.150513196503312</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187175</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>117.6820817884495</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>165.5113759375334</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>128.4813855737356</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.6501519448736</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>930985.1544683024</v>
+        <v>930985.1544683034</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
     <row r="8">
@@ -26317,22 +26317,22 @@
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371978</v>
+        <v>366294.6221371982</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="G2" t="n">
-        <v>403573.2998450031</v>
-      </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450033</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
         <v>403573.299845003</v>
@@ -26353,7 +26353,7 @@
         <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861777</v>
+        <v>392510.2442861774</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264171</v>
+        <v>12262.8560326463</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674492</v>
+        <v>395943.9567674466</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704304</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949593</v>
+        <v>3074.447349950715</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>103409.260893111</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.574132024</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888978</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607422</v>
+        <v>170817.8827607409</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
@@ -26430,16 +26430,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26448,16 +26448,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189199</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404161</v>
+        <v>86153.75444404196</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738554</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-516358.382834447</v>
       </c>
       <c r="C6" t="n">
-        <v>-241391.4312988061</v>
+        <v>-241391.4312988058</v>
       </c>
       <c r="D6" t="n">
-        <v>141286.3916947161</v>
+        <v>141286.3916947125</v>
       </c>
       <c r="E6" t="n">
-        <v>-130727.9851098824</v>
+        <v>-130949.1164238543</v>
       </c>
       <c r="F6" t="n">
-        <v>97095.91727877352</v>
+        <v>97061.17935333957</v>
       </c>
       <c r="G6" t="n">
-        <v>286404.186049204</v>
+        <v>286369.4481237684</v>
       </c>
       <c r="H6" t="n">
-        <v>286404.186049204</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="I6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237686</v>
       </c>
       <c r="J6" t="n">
-        <v>237339.2413206593</v>
+        <v>237304.5033952235</v>
       </c>
       <c r="K6" t="n">
-        <v>195144.2291843263</v>
+        <v>195109.4912588905</v>
       </c>
       <c r="L6" t="n">
-        <v>283329.7386992543</v>
+        <v>283295.0007738175</v>
       </c>
       <c r="M6" t="n">
-        <v>182994.9251560922</v>
+        <v>182960.1872306573</v>
       </c>
       <c r="N6" t="n">
-        <v>236564.61191718</v>
+        <v>236529.8739917447</v>
       </c>
       <c r="O6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237681</v>
       </c>
       <c r="P6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237683</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573205</v>
+        <v>863.6234498573242</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426318</v>
+        <v>554.2625532426364</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490076</v>
+        <v>969.2208239490094</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247797</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636328</v>
+        <v>9.912785319640079</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576286</v>
+        <v>338.6177873576264</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267247</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646875</v>
+        <v>12.14759651647319</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063757</v>
+        <v>414.958270706373</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506408</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646875</v>
+        <v>12.14759651647319</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063757</v>
+        <v>414.958270706373</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506408</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646875</v>
+        <v>12.14759651647319</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063757</v>
+        <v>414.958270706373</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506408</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>351.5228849393826</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>175.6775545240985</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>41.17708729263573</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681285</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377097</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>75.27800118047566</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>323.0720974467338</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>203.6097624411719</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3180207672362</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>95.92735743473241</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>62.29599847145408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,7 +27822,7 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151403</v>
+        <v>76.62727429151346</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731853</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731748</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>350.8517813133546</v>
       </c>
       <c r="Y8" t="n">
-        <v>120.7711669144338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>135.4859120069137</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433994</v>
+        <v>35.56536036433966</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3067689461478</v>
+        <v>149.9932628558509</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>148.3808817867762</v>
       </c>
       <c r="I10" t="n">
-        <v>108.61659997434</v>
+        <v>108.6165999743398</v>
       </c>
       <c r="J10" t="n">
-        <v>16.8905104633243</v>
+        <v>16.89051046332384</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099045</v>
+        <v>21.09786070098988</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>107.2691031313609</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>196.8761692930954</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>20.71178377956917</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>32.93243588616477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.136084018507108e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-2.366801199471524e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-2.419824340904597e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.054119771154569e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30511,13 +30511,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753045</v>
+        <v>3.47185306475306</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940212</v>
+        <v>35.55611519940228</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788919</v>
+        <v>133.8486152788925</v>
       </c>
       <c r="J8" t="n">
-        <v>294.669189054584</v>
+        <v>294.6691890545853</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855804</v>
+        <v>441.6327292855823</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160165</v>
+        <v>547.8844525160189</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563184</v>
+        <v>609.6270194563211</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765481</v>
+        <v>619.4914219765508</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639099</v>
+        <v>584.9681830639125</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278191</v>
+        <v>499.2568105278213</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463506</v>
+        <v>374.9210726463522</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787936</v>
+        <v>218.0887900787946</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306008</v>
+        <v>79.11485171306042</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095646</v>
+        <v>15.19803679095653</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802435</v>
+        <v>0.2777482451802447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296878</v>
+        <v>1.857605156296886</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213038</v>
+        <v>17.94055506213045</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566006</v>
+        <v>63.95701963566034</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148731</v>
+        <v>175.5029503148738</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867638</v>
+        <v>299.9624957867651</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564778</v>
+        <v>403.3365932564796</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722396</v>
+        <v>470.6747801722416</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668797</v>
+        <v>483.1321410668818</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510383</v>
+        <v>441.9715215510403</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423398</v>
+        <v>354.7211109423414</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230892</v>
+        <v>237.1216687230902</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111343</v>
+        <v>115.3344675111348</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911085</v>
+        <v>34.504201039111</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442238</v>
+        <v>7.48745236244227</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458473</v>
+        <v>0.1222108655458478</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037791</v>
+        <v>1.557353762037798</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066328</v>
+        <v>13.84629072066334</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291831</v>
+        <v>46.83387495291851</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760718</v>
+        <v>110.1049109760723</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258451</v>
+        <v>180.9361916258459</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306003</v>
+        <v>231.5360311306013</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801602</v>
+        <v>244.1222810801613</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762014</v>
+        <v>238.3175988762024</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833053</v>
+        <v>220.1248753833062</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377342</v>
+        <v>188.354858637735</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284554</v>
+        <v>130.407140928456</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580828</v>
+        <v>70.02428824580859</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387676</v>
+        <v>27.14042874387688</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343286</v>
+        <v>6.654147892343315</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842505</v>
+        <v>0.08494656883842543</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869138</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203911</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975119</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544647</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795455</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180157</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956794</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962035</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825962</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696625</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968216</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469199</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598376</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747741</v>
+        <v>156.4572543240563</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821471</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340497</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924466</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>206.2583543402779</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047536</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605172</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627647</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100537</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770059</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806235</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493061</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811697</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377472</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,28 +33971,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278977</v>
+        <v>113.623284527899</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405999</v>
+        <v>221.5428782406018</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460293</v>
+        <v>312.1180375460316</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290457</v>
+        <v>379.2807862290484</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799571</v>
+        <v>390.0783583799599</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422232</v>
+        <v>354.8699716422258</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725495</v>
+        <v>268.0238147725518</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719011</v>
+        <v>152.6153827719027</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661484</v>
+        <v>2.50325226466245</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820637</v>
+        <v>48.66532364820711</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124048</v>
+        <v>162.1210568124062</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766037</v>
+        <v>264.7822134766054</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502213</v>
+        <v>328.5407462502233</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835463</v>
+        <v>351.7904289835485</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065939</v>
+        <v>299.3752771065958</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280096</v>
+        <v>220.7467035280112</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370677</v>
+        <v>97.13989463706872</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530973</v>
+        <v>51.92293345531053</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936204</v>
+        <v>96.65135484936303</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325552</v>
+        <v>105.1964971325562</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109682</v>
+        <v>110.6320544109692</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146248</v>
+        <v>81.66833693146344</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858658</v>
+        <v>50.62685458858738</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937048</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525313</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844774</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681823</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214247</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739927</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067654</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081467</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.0136023555304</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854786</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036948999</v>
+        <v>17.90287454418211</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601288</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507165</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480022</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>72.28394692594769</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187321</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655328</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186259</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070195</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703698</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388465</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141996</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776291</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
